--- a/Documentation/TestCases/CS673F13P2_TestCase.xlsx
+++ b/Documentation/TestCases/CS673F13P2_TestCase.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="525" windowWidth="19935" windowHeight="9450" tabRatio="784"/>
+    <workbookView xWindow="270" yWindow="525" windowWidth="19935" windowHeight="9450" tabRatio="588" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,17 @@
     <sheet name="03SurveyCreator" sheetId="4" r:id="rId4"/>
     <sheet name="04SurveyTaker" sheetId="5" r:id="rId5"/>
     <sheet name="05Report" sheetId="6" r:id="rId6"/>
-    <sheet name="06Settings" sheetId="7" r:id="rId7"/>
+    <sheet name="06Settings" sheetId="7" state="hidden" r:id="rId7"/>
     <sheet name="Summary" sheetId="8" r:id="rId8"/>
-    <sheet name="Meta" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="9" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="TestResult">Meta!$H$1:$H$3</definedName>
+    <definedName name="TestResult">Sheet1!$H$1:$H$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="30" r:id="rId10"/>
+    <pivotCache cacheId="34" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="267">
   <si>
     <t>CS673 Project - Group 2</t>
   </si>
@@ -184,10 +184,6 @@
   </si>
   <si>
     <t>User signed in successfully</t>
-  </si>
-  <si>
-    <t>email: testmysurvey@gmail.com
-password: pa55w0rd!</t>
   </si>
   <si>
     <t>TC01003</t>
@@ -287,11 +283,6 @@
     <t>Input an existing mail ID and click 'Sign up'</t>
   </si>
   <si>
-    <t>(email already used):
-email: testmysurvey@gmail.com
-password: pa55w0rd!_2</t>
-  </si>
-  <si>
     <t>TC02004</t>
   </si>
   <si>
@@ -334,48 +325,6 @@
 password: passwordnotsafe</t>
   </si>
   <si>
-    <t>TC01006</t>
-  </si>
-  <si>
-    <t>TC01007</t>
-  </si>
-  <si>
-    <t>TC01008</t>
-  </si>
-  <si>
-    <t>TC01009</t>
-  </si>
-  <si>
-    <t>TC01010</t>
-  </si>
-  <si>
-    <t>TC01011</t>
-  </si>
-  <si>
-    <t>TC01012</t>
-  </si>
-  <si>
-    <t>TC01013</t>
-  </si>
-  <si>
-    <t>TC01014</t>
-  </si>
-  <si>
-    <t>TC01015</t>
-  </si>
-  <si>
-    <t>TC01016</t>
-  </si>
-  <si>
-    <t>TC01017</t>
-  </si>
-  <si>
-    <t>TC01018</t>
-  </si>
-  <si>
-    <t>TC01019</t>
-  </si>
-  <si>
     <t>TC03001</t>
   </si>
   <si>
@@ -404,65 +353,11 @@
   </si>
   <si>
     <t>TC04001</t>
-  </si>
-  <si>
-    <t>TC04002</t>
-  </si>
-  <si>
-    <t>TC04003</t>
-  </si>
-  <si>
-    <t>TC04004</t>
-  </si>
-  <si>
-    <t>TC04005</t>
-  </si>
-  <si>
-    <t>TC04006</t>
-  </si>
-  <si>
-    <t>TC04007</t>
-  </si>
-  <si>
-    <t>TC04008</t>
-  </si>
-  <si>
-    <t>TC04009</t>
-  </si>
-  <si>
-    <t>TC04010</t>
-  </si>
-  <si>
-    <t>TC04011</t>
-  </si>
-  <si>
-    <t>TC04012</t>
-  </si>
-  <si>
-    <t>TC04013</t>
-  </si>
-  <si>
-    <t>TC04014</t>
-  </si>
-  <si>
-    <t>TC04015</t>
-  </si>
-  <si>
-    <t>TC04016</t>
-  </si>
-  <si>
-    <t>TC04017</t>
-  </si>
-  <si>
-    <t>TC04018</t>
-  </si>
-  <si>
-    <t>TC04019</t>
   </si>
   <si>
     <t>Warning message will show up and  user will not be registered due to the following reason:
 - email already registered</t>
-    <phoneticPr fontId="79" type="noConversion"/>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -509,12 +404,12 @@
       </rPr>
       <t xml:space="preserve"> email address</t>
     </r>
-    <phoneticPr fontId="79" type="noConversion"/>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
   <si>
     <t>Warning message will show up and  user will not be registered due to the following reason:
 - password does not meet security criteria</t>
-    <phoneticPr fontId="79" type="noConversion"/>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -530,30 +425,23 @@
       </rPr>
       <t>mismatching password and confirming passwod</t>
     </r>
-    <phoneticPr fontId="79" type="noConversion"/>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
   <si>
     <t>Input a password and another different one in the 'retype password' field</t>
-    <phoneticPr fontId="79" type="noConversion"/>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
   <si>
     <t>Warning message will show up and  user will not be registered due to the following reason:
 - password and retype password do not match</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>First Name: James
-Last Name: Bond
-Email: jamesbond_ec673@gmail.com
-Password: pa55w0rd!</t>
-    <phoneticPr fontId="79" type="noConversion"/>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
   <si>
     <t>(password needs special character):
 email: testmysurvey3@gmail.com
 password: pa55w0rd!
 retype password: password!</t>
-    <phoneticPr fontId="79" type="noConversion"/>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -569,39 +457,28 @@
       </rPr>
       <t>he creator logged in successfully</t>
     </r>
-    <phoneticPr fontId="79" type="noConversion"/>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
   <si>
     <t>1. User clicks the 'Create New Survey' button
 2. Give the survey title
 3. Click 'Cancel' button</t>
-    <phoneticPr fontId="79" type="noConversion"/>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
   <si>
     <t>No new survey will be created in this case</t>
-    <phoneticPr fontId="79" type="noConversion"/>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
   <si>
     <t>1. User clicks the 'Create New Survey' button
 2. Give the survey title
 3. Click 'Create' button
 4. Click 'Save' button</t>
-    <phoneticPr fontId="79" type="noConversion"/>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
   <si>
     <t>The survey enntry with the given title will be created and displayed under the 'Unpublished' section of the survey home page</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. User clicks the 'Create New Survey' button
-2. Give the survey title
-3. Click 'Create' button
-4. Click 'Add new question' link
-5. Input the question text
-6. Click 'Create' button
-7. Repeat 4~6 to add more questions
-8. Click 'Save' button</t>
-    <phoneticPr fontId="79" type="noConversion"/>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -617,24 +494,7 @@
       </rPr>
       <t>he new survey entry with the added questions will be created and displayed under the 'Unpublished' section of the survey home page</t>
     </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>. The creator logged in successfully
-2. There is an existing survey</t>
-    </r>
-    <phoneticPr fontId="79" type="noConversion"/>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -652,33 +512,489 @@
 2. Change the survey title to something else
 3.Click 'Save' button</t>
     </r>
-    <phoneticPr fontId="79" type="noConversion"/>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create a new survey title with no questions</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel to create a new survey</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>elete a survey</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click the 'Delete' link of the existing survey in the survey home page</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>he survey will be deleted</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">he survey question will be deleted </t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">he survey title will be updated </t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The survey question will be updated </t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ublish an unpublished survey</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>The survey will be moved to 'Published' section</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. The creator logged in successfully
+2. There is an existing survey unpublished</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. The creator logged in successfully
+2. There is an existing survey published</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>The survey will be moved to 'Unpublished' section</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1LoginLogout</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2Registration</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3SurveyCreator</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4SurveyTaker</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5Report</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6Settings</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>01LoginLogout</t>
+  </si>
+  <si>
+    <t>02Registration</t>
+  </si>
+  <si>
+    <t>03SurveyCreator</t>
+  </si>
+  <si>
+    <t>04SurveyTaker</t>
+  </si>
+  <si>
+    <t>05Report</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ass</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ail</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ot Tested</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Tested</t>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Tested</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum:Pass</t>
+  </si>
+  <si>
+    <t>Sum:Fail</t>
+  </si>
+  <si>
+    <t>Sum:Not Tested</t>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>Empty survey title is not allowed</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title: survey 1</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title: &lt;empty&gt;</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. User clicks the 'Create New Survey' button
+2. Leave the survey title as empty
+3. Click 'Create' button</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create a new survey with an existing title name should not be allowed</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC03010</t>
+  </si>
+  <si>
+    <t>TC03011</t>
+  </si>
+  <si>
+    <t>1. User clicks the 'Create New Survey' button
+2. Give the survey title as 'survey 1'
+3. Click 'Create' button
+4. Click 'Save' button</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>A warning message should show 'Title cannot be blank'.</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>A warning message should show 'The survey with this title already exists'.</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit a survey to an existing survey title is not allowed</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change a survey title to empty is not allowed</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click the 'Edit' link of the survey 2 in the survey home page
+2. Change the survey title to be 'survey 1'
+3.Click 'Save' button</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>itle: survey 1</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
   <si>
     <t>1. Click the 'Edit' link of the existing survey in the survey home page
-2. Click the 'Edit' link of a specific question in the survey
+2. Change the survey title to empty
 3.Click 'Save' button</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create a new survey title with no questions</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancel to create a new survey</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create a new survey entry with questions</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit an existing survey for the title</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit an existing survey for the question details</t>
-    <phoneticPr fontId="79" type="noConversion"/>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC03012</t>
+  </si>
+  <si>
+    <t>TC03013</t>
+  </si>
+  <si>
+    <t>Unpublish a published survey</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pen a survey link from mail</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> valid survey link has been sent to the survey taker</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pen the survey link from his / her own mailbox</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>he browser will open the valid surey URL and display the homepage</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit an existing survey title</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit question of a survey</t>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -694,21 +1010,54 @@
       </rPr>
       <t>elete a question from a survey</t>
     </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. The creator logged in successfully
-2. There is an existing survey (with question)</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Click the 'Edit' link of the existing survey in the survey home page
-2. Click the 'Delete' link of a specific question in the survey</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add question to a survey (multiple choice)</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add question to a survey (comments)</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add an empty question to a survey (single choice)</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add questions to a survey (single choice)</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should give warning message</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add an empty question to a survey (multiple choice)</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add an empty question to a survey (comments)</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC03014</t>
+  </si>
+  <si>
+    <t>TC03015</t>
+  </si>
+  <si>
+    <t>TC03016</t>
+  </si>
+  <si>
+    <t>TC03017</t>
+  </si>
+  <si>
+    <t>TC03018</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
     </r>
     <r>
       <rPr>
@@ -718,17 +1067,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>elete a survey</t>
-    </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Click the 'Delete' link of the existing survey in the survey home page</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
+      <t>dd a new answer for a single choice question</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
     </r>
     <r>
       <rPr>
@@ -738,13 +1083,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>he survey will be deleted</t>
-    </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
+      <t>dit an answer for a single choice question</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
     </r>
     <r>
       <rPr>
@@ -754,13 +1099,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">he survey question will be deleted </t>
-    </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
+      <t>dd an empty answer for a single choice question</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
     </r>
     <r>
       <rPr>
@@ -770,17 +1115,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">he survey title will be updated </t>
-    </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The survey question will be updated </t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
+      <t>dit an answer to empty for a single choice question</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
     </r>
     <r>
       <rPr>
@@ -790,39 +1131,27 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>ublish an unpublished survey</t>
-    </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Click the 'Publish' link of the existing survey in the survey home page</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>The survey will be moved to 'Published' section</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. The creator logged in successfully
-2. There is an existing survey unpublished</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. The creator logged in successfully
-2. There is an existing survey published</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Click the 'Unpublish' link of the existing survey in the survey home page</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>The survey will be moved to 'Unpublished' section</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
+      <t>elete an answer for a single choice question</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survey already exists</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>The survey already has a single choicequestion</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click the 'Add new answer' button
+2. Input the answer text
+3. Click 'Save' button</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -832,17 +1161,104 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>1LoginLogout</t>
-    </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>Module</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
+      <t>here should be no more 'Add new answer' button available .
+The answer will be saved for this question</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click the 'Add new answer' button
+2. Leave the answer text as blank
+3. Click 'Save' button</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click the 'Edit Question' button
+2. Update the question field
+3.Click 'Save' button</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click 'Add new question' button
+2. Input the question text 
+3. Select question type to be 'Single choice'
+4. Click 'Create' button
+5. Repeat 4~6 to add more questions
+6. Click 'Save' button</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click 'Add new question' button
+2. Leave the question blank
+3. Select question type to be 'Single choice'
+4. Click 'Save' button</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click 'Add new question' button
+2. Input the question text 
+3. Select question type to be 'Multiple choice'
+4. Click 'Create' button
+5. Repeat 4~6 to add more questions
+6. Click 'Save' button</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click 'Add new question' button
+2. Leave the question blank
+3. Select question type to be 'Multiple choice'
+4. Click 'Save' button</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click 'Add new question' button
+2. Input the question text 
+3. Select question type to be 'Comments'
+4. Click 'Create' button
+5. Repeat 4~6 to add more questions
+6. Click 'Save' button</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click 'Add new question' button
+2. Leave the question blank
+3. Select question type to be 'Comments'
+4. Click 'Save' button</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click the 'Edit' link of the existing survey in the survey home page
+2. Click the 'Delete' button of a specific question in the survey</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>There should be no more 'Add new answer' button available .
+The answer will not be saved for this question</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click the 'Edit answer' button
+2. Leave the answer text as blank
+3. Click 'Save' button</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>The answer will not be saved for this question</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click the 'Edit answer' button
+2. Update the answer text
+3. Click 'Save' button</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>The answer will be saved for this question</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
     </r>
     <r>
       <rPr>
@@ -852,13 +1268,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>2Registration</t>
-    </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
+      <t>lick the 'Delete Answer' button for a specific answer</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -868,13 +1284,42 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>3SurveyCreator</t>
-    </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
+      <t>he answer will be deleted</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC03019</t>
+  </si>
+  <si>
+    <t>TC03020</t>
+  </si>
+  <si>
+    <t>TC03021</t>
+  </si>
+  <si>
+    <t>TC03022</t>
+  </si>
+  <si>
+    <t>TC03023</t>
+  </si>
+  <si>
+    <t>TC02007</t>
+  </si>
+  <si>
+    <t>求和项:Total</t>
+  </si>
+  <si>
+    <t>See the report list</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click the 'Reports' link from the homepage</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -884,13 +1329,66 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>4SurveyTaker</t>
-    </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
+      <t>he report list should display</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open report '1'</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>The report '1' will be opened successfully</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open report '2'</t>
+  </si>
+  <si>
+    <t>The report '2' will be opened successfully</t>
+  </si>
+  <si>
+    <t>Open report '3'</t>
+  </si>
+  <si>
+    <t>The report '3' will be opened successfully</t>
+  </si>
+  <si>
+    <t>Open report '4'</t>
+  </si>
+  <si>
+    <t>The report '4' will be opened successfully</t>
+  </si>
+  <si>
+    <t>Open report '5'</t>
+  </si>
+  <si>
+    <t>The report '5' will be opened successfully</t>
+  </si>
+  <si>
+    <t>1. Click the 'Reports' link from the homepage
+2. Click the specific report link to open the report '1'</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click the 'Reports' link from the homepage
+2. Click the specific report link to open the report '2'</t>
+  </si>
+  <si>
+    <t>1. Click the 'Reports' link from the homepage
+2. Click the specific report link to open the report '3'</t>
+  </si>
+  <si>
+    <t>1. Click the 'Reports' link from the homepage
+2. Click the specific report link to open the report '4'</t>
+  </si>
+  <si>
+    <t>1. Click the 'Reports' link from the homepage
+2. Click the specific report link to open the report '5'</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
     </r>
     <r>
       <rPr>
@@ -900,13 +1398,24 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>5Report</t>
-    </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
+      <t>ave report '1'</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>The report '1' will be downloaded successfully</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Click the 'Reports' link from the homepage
+2. Click the 'Download' link for report '1'
+3. Input the file name for saving
+4. Click 'Ok' to start downloading</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
     </r>
     <r>
       <rPr>
@@ -916,122 +1425,259 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>6Settings</t>
-    </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>01LoginLogout</t>
-  </si>
-  <si>
-    <t>02Registration</t>
-  </si>
-  <si>
-    <t>03SurveyCreator</t>
-  </si>
-  <si>
-    <t>04SurveyTaker</t>
-  </si>
-  <si>
-    <t>05Report</t>
-  </si>
-  <si>
-    <t>06Settings</t>
-  </si>
-  <si>
-    <t>总计</t>
-  </si>
-  <si>
-    <t>行标签</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
+      <t>ave report '2'</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1. Click the 'Reports' link from the homepage
+2. Click the 'Download' link for report '1'
+3. Input the file name for saving
+5. Click 'Ok' to start downloading</t>
+  </si>
+  <si>
+    <t>The report '2' will be downloaded successfully</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t>ass</t>
-    </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
+      <t>ave report '3'</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1. Click the 'Reports' link from the homepage
+2. Click the 'Download' link for report '1'
+3. Input the file name for saving
+6. Click 'Ok' to start downloading</t>
+  </si>
+  <si>
+    <t>The report '3' will be downloaded successfully</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t>ail</t>
-    </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
+      <t>ave report '4'</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1. Click the 'Reports' link from the homepage
+2. Click the 'Download' link for report '1'
+3. Input the file name for saving
+7. Click 'Ok' to start downloading</t>
+  </si>
+  <si>
+    <t>The report '4' will be downloaded successfully</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t>ot Tested</t>
-    </r>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not Tested</t>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Fail</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not Tested</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sum:Test Case Count</t>
-  </si>
-  <si>
-    <t>Sum:Pass</t>
-  </si>
-  <si>
-    <t>Sum:Fail</t>
-  </si>
-  <si>
-    <t>Sum:Not Tested</t>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="79" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
+      <t>ave report '5'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1. Click the 'Reports' link from the homepage
+2. Click the 'Download' link for report '1'
+3. Input the file name for saving
+8. Click 'Ok' to start downloading</t>
+  </si>
+  <si>
+    <t>The report '5' will be downloaded successfully</t>
+  </si>
+  <si>
+    <t>TC01006</t>
+  </si>
+  <si>
+    <t>TC01007</t>
+  </si>
+  <si>
+    <t>TC01008</t>
+  </si>
+  <si>
+    <t>TC01009</t>
+  </si>
+  <si>
+    <t>TC01010</t>
+  </si>
+  <si>
+    <t>TC01011</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tart and complete the survey</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> suvey has already been opened</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lick the 'Start' button to start the survey</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>he survey taker should be able to start working on the survey and complete all the questions as guided</t>
+    </r>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC04002</t>
+  </si>
+  <si>
+    <t>(email already used):
+email: testmysurvey@gmail.com
+password: pa55w0rd!_2</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>email: testmysurvey@gmail.com
+password: pa55w0rd!</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Name: James
+Last Name: Bond
+Email: testmysurvey@gmail.com
+Password: pa55w0rd!</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC03024</t>
+  </si>
+  <si>
+    <t>Back to all surveys</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the Survey Editor page</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click the 'Publish' link of the existing survey in the survey home page</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click the 'Unpublish' link of the existing survey in the survey home page</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click the 'Back to all Surveys' button</t>
+    <phoneticPr fontId="80" type="noConversion"/>
+  </si>
+  <si>
+    <t>System should go back to survey list page</t>
+    <phoneticPr fontId="80" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1043,11 +1689,18 @@
     <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="87" x14ac:knownFonts="1">
+  <fonts count="88" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2620,254 +3273,251 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="36" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="36" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="37" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="48" fillId="40" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="49" fillId="40" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="41" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="41" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="50" fillId="42" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="51" fillId="42" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="45" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="45" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="56" fillId="48" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="57" fillId="48" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="50" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="50" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="51" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="51" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="53" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="53" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="56" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="56" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="57" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="57" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="58" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="58" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="59" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="59" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="60" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="60" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="64" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="64" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="65" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="65" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="51" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="51" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
@@ -2879,95 +3529,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="55" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="55" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="61" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="61" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="54" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="54" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="52" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="52" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="48" fillId="40" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="49" fillId="40" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="47" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="48" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="38" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="38" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="56" fillId="48" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="57" fillId="48" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3161,6 +3838,153 @@
           </a:gradFill>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="00B0F0"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="23500"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="00B050"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="92D050"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="7030A0"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="0070C0"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="00B0F0"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="FFC000"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -3168,10 +3992,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4737294201861129E-2"/>
-          <c:y val="0.35495220288099433"/>
-          <c:w val="0.38426819374850874"/>
-          <c:h val="0.56547827842589915"/>
+          <c:x val="0.10519076803057047"/>
+          <c:y val="0.31352556661119207"/>
+          <c:w val="0.43464593374190946"/>
+          <c:h val="0.58099157135363122"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -3200,9 +4024,9 @@
                     <a:srgbClr val="00B0F0"/>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="tx2">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
+                    <a:schemeClr val="accent1">
+                      <a:tint val="23500"/>
+                      <a:satMod val="160000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
@@ -3217,13 +4041,14 @@
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="75000"/>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
@@ -3275,7 +4100,7 @@
               <a:gradFill>
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:srgbClr val="002060"/>
+                    <a:srgbClr val="0070C0"/>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:srgbClr val="00B0F0"/>
@@ -3285,26 +4110,17 @@
               </a:gradFill>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="FFC000"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-            </c:spPr>
-          </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:spPr/>
             <c:txPr>
               <a:bodyPr/>
@@ -3318,7 +4134,7 @@
             </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
@@ -3326,9 +4142,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$2:$A$8</c:f>
+              <c:f>Summary!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>01LoginLogout</c:v>
                 </c:pt>
@@ -3344,18 +4160,15 @@
                 <c:pt idx="4">
                   <c:v>05Report</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>06Settings</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$2:$B$8</c:f>
+              <c:f>Summary!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3363,16 +4176,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3398,8 +4208,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.70627718410198725"/>
           <c:y val="0.33439794942020212"/>
-          <c:w val="0.25508427340622158"/>
-          <c:h val="0.59005759172189809"/>
+          <c:w val="0.29106593413858534"/>
+          <c:h val="0.47112965919197547"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3700,13 +4510,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3855,7 +4665,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user1" refreshedDate="41574.744335648145" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="6">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user1" refreshedDate="41588.856315393517" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="6">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B7" sheet="Sheet1" r:id="rId2"/>
   </cacheSource>
@@ -3870,8 +4680,8 @@
         <s v="06Settings"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Test Case Count" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="19"/>
+    <cacheField name="Total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="23"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3883,25 +4693,25 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user1" refreshedDate="41574.771766319442" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="6">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user1" refreshedDate="41588.859018981479" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="6">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E7" sheet="Meta"/>
+    <worksheetSource ref="A1:E7" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Module" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Test Case Count" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="19"/>
+    <cacheField name="Total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="24"/>
     </cacheField>
     <cacheField name="Pass" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="23"/>
     </cacheField>
     <cacheField name="Fail" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="Not Tested" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="19"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="11"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3924,19 +4734,19 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="9"/>
+    <n v="23"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="19"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="19"/>
+    <n v="11"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="19"/>
+    <n v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -3959,41 +4769,41 @@
   </r>
   <r>
     <s v="03SurveyCreator"/>
-    <n v="9"/>
-    <n v="8"/>
+    <n v="24"/>
+    <n v="23"/>
     <n v="1"/>
     <n v="0"/>
   </r>
   <r>
     <s v="04SurveyTaker"/>
-    <n v="19"/>
+    <n v="2"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="19"/>
+    <n v="2"/>
   </r>
   <r>
     <s v="05Report"/>
-    <n v="19"/>
+    <n v="11"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="19"/>
+    <n v="11"/>
   </r>
   <r>
     <s v="06Settings"/>
-    <n v="19"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="19"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="34" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G1:H4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -4086,8 +4896,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
@@ -4096,16 +4906,16 @@
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="5"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="6">
     <i>
       <x/>
     </i>
@@ -4121,9 +4931,6 @@
     <i>
       <x v="4"/>
     </i>
-    <i>
-      <x v="5"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -4132,10 +4939,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum:Test Case Count" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="求和项:Total" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="7">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4144,7 +4951,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1">
+    <chartFormat chart="0" format="8">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4156,7 +4963,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2">
+    <chartFormat chart="0" format="9">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4168,7 +4975,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="3">
+    <chartFormat chart="0" format="10">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4180,7 +4987,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="4">
+    <chartFormat chart="0" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4192,7 +4999,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="5">
+    <chartFormat chart="0" format="12">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4204,7 +5011,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="6">
+    <chartFormat chart="0" format="13">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4515,7 +5322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -4566,82 +5373,82 @@
       <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="100"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="104"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="98"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="100"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="104"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="102"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="100"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="104"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="105"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="109"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="105"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="109"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="112"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
@@ -4714,12 +5521,12 @@
       <c r="H18" s="49"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="113"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
       <c r="G19" s="7"/>
       <c r="H19" s="49"/>
     </row>
@@ -4756,10 +5563,10 @@
     <row r="23" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="47"/>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="115"/>
+      <c r="D23" s="119"/>
       <c r="E23" s="47" t="s">
         <v>5</v>
       </c>
@@ -4774,10 +5581,10 @@
       <c r="B24" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="110" t="s">
+      <c r="C24" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="110"/>
+      <c r="D24" s="114"/>
       <c r="E24" s="24"/>
       <c r="F24" s="9"/>
       <c r="G24" s="27"/>
@@ -4788,10 +5595,10 @@
       <c r="B25" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="110"/>
+      <c r="D25" s="114"/>
       <c r="E25" s="29"/>
       <c r="F25" s="57"/>
       <c r="G25" s="27"/>
@@ -4802,10 +5609,10 @@
       <c r="B26" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="110"/>
+      <c r="D26" s="114"/>
       <c r="E26" s="29"/>
       <c r="F26" s="2"/>
       <c r="G26" s="13"/>
@@ -4816,10 +5623,10 @@
       <c r="B27" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="109">
+      <c r="C27" s="113">
         <v>41549</v>
       </c>
-      <c r="D27" s="110"/>
+      <c r="D27" s="114"/>
       <c r="E27" s="41"/>
       <c r="F27" s="12"/>
       <c r="G27" s="43"/>
@@ -4862,8 +5669,8 @@
     <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="30"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -4872,8 +5679,8 @@
     <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="56"/>
       <c r="B32" s="30"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="15"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
@@ -4915,7 +5722,7 @@
     <mergeCell ref="A9:H10"/>
     <mergeCell ref="A11:H11"/>
   </mergeCells>
-  <phoneticPr fontId="79" type="noConversion"/>
+  <phoneticPr fontId="80" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4927,15 +5734,15 @@
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="51" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" style="51" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="51" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" style="51" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" style="51" customWidth="1"/>
     <col min="6" max="6" width="44.28515625" style="51" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" style="51" customWidth="1"/>
@@ -4946,7 +5753,7 @@
     <col min="12" max="16" width="8" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="50" t="s">
         <v>16</v>
@@ -4969,38 +5776,38 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:16" s="89" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:16" s="88" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A2" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="87" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="14"/>
@@ -5009,7 +5816,7 @@
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
     </row>
-    <row r="3" spans="1:16" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="115.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>28</v>
       </c>
@@ -5032,7 +5839,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="40"/>
       <c r="I3" s="40" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
@@ -5042,7 +5849,7 @@
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
     </row>
-    <row r="4" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
@@ -5058,13 +5865,13 @@
       <c r="E4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>38</v>
+      <c r="F4" s="69" t="s">
+        <v>258</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="40" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
@@ -5074,29 +5881,29 @@
       <c r="O4" s="33"/>
       <c r="P4" s="33"/>
     </row>
-    <row r="5" spans="1:16" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="E5" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="F5" s="40" t="s">
         <v>43</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>44</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
       <c r="I5" s="40" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
@@ -5106,29 +5913,29 @@
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
     </row>
-    <row r="6" spans="1:16" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="40" t="s">
+      <c r="E6" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>47</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="40" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
@@ -5138,27 +5945,27 @@
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="99" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="C7" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="D7" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="E7" s="40" t="s">
         <v>52</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>53</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
@@ -5169,7 +5976,7 @@
       <c r="P7" s="33"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="79" type="noConversion"/>
+  <phoneticPr fontId="80" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>TestResult</formula1>
@@ -5184,17 +5991,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="51" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" style="51" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="51" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" style="51" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" style="51" customWidth="1"/>
     <col min="6" max="6" width="44.28515625" style="51" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" style="51" bestFit="1" customWidth="1"/>
@@ -5205,7 +6012,7 @@
     <col min="12" max="16" width="8.7109375" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="50" t="s">
         <v>16</v>
@@ -5227,38 +6034,38 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:16" s="89" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:16" s="88" customFormat="1" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="87" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="14"/>
@@ -5267,27 +6074,27 @@
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
     </row>
-    <row r="3" spans="1:16" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="C3" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="D3" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="E3" s="40" t="s">
         <v>57</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>58</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
       <c r="I3" s="69" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
@@ -5299,27 +6106,27 @@
     </row>
     <row r="4" spans="1:16" ht="99" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="D4" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="E4" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>63</v>
-      </c>
       <c r="F4" s="69" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="69" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
@@ -5331,27 +6138,27 @@
     </row>
     <row r="5" spans="1:16" ht="66" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="C5" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>66</v>
-      </c>
       <c r="E5" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>67</v>
+        <v>88</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>257</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
       <c r="I5" s="69" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
@@ -5363,27 +6170,27 @@
     </row>
     <row r="6" spans="1:16" ht="66" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="E6" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>69</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>71</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="69" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
@@ -5395,27 +6202,27 @@
     </row>
     <row r="7" spans="1:16" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="E7" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>73</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="69" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
@@ -5427,27 +6234,27 @@
     </row>
     <row r="8" spans="1:16" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="E8" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>77</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>79</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="69" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="40"/>
@@ -5459,33 +6266,33 @@
     </row>
     <row r="9" spans="1:16" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" s="69" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="79" type="noConversion"/>
+  <phoneticPr fontId="80" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>TestResult</formula1>
@@ -5498,19 +6305,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="51" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="51" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="101" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="51" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="51" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.85546875" style="51" customWidth="1"/>
     <col min="6" max="6" width="44.28515625" style="51" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" style="51" customWidth="1"/>
@@ -5529,8 +6336,8 @@
       <c r="C1" s="52"/>
       <c r="D1" s="58"/>
       <c r="E1" s="63">
-        <f>COUNTA(A3:A99)</f>
-        <v>9</v>
+        <f>COUNTA(A3:A89)</f>
+        <v>24</v>
       </c>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
@@ -5544,38 +6351,38 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:16" s="89" customFormat="1" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:16" s="88" customFormat="1" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="87" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="14"/>
@@ -5584,27 +6391,29 @@
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
     </row>
-    <row r="3" spans="1:16" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="66" x14ac:dyDescent="0.2">
       <c r="A3" s="68" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="20"/>
+        <v>99</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>145</v>
+      </c>
       <c r="G3" s="26"/>
       <c r="H3" s="40"/>
       <c r="I3" s="40" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
@@ -5614,27 +6423,840 @@
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
     </row>
+    <row r="4" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="98"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A5" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="98"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="7" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A7" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+    </row>
+    <row r="8" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+    </row>
+    <row r="9" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A9" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" spans="1:16" ht="33" x14ac:dyDescent="0.2">
+      <c r="A10" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+    </row>
+    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.2">
+      <c r="A11" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+    </row>
+    <row r="12" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A12" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+    </row>
+    <row r="13" spans="1:16" ht="99" x14ac:dyDescent="0.2">
+      <c r="A13" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+    </row>
+    <row r="14" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A14" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+    </row>
+    <row r="15" spans="1:16" ht="99" x14ac:dyDescent="0.2">
+      <c r="A15" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A16" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+    </row>
+    <row r="17" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+    </row>
+    <row r="18" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A18" s="97" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+    </row>
+    <row r="19" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A19" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+    </row>
+    <row r="20" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A20" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+    </row>
+    <row r="21" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+    </row>
+    <row r="22" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A24" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+    </row>
+    <row r="25" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A25" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+    </row>
+    <row r="26" spans="1:16" ht="33" x14ac:dyDescent="0.2">
+      <c r="A26" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="80" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+      <formula1>TestResult</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="51" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="51" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="51" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="51" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="51" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="51"/>
+    <col min="11" max="11" width="23.28515625" style="51" customWidth="1"/>
+    <col min="12" max="16" width="8.7109375" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="63">
+        <f>COUNTA(A3:A99)</f>
+        <v>2</v>
+      </c>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" s="88" customFormat="1" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+    </row>
     <row r="4" spans="1:16" ht="66" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>141</v>
+        <v>256</v>
+      </c>
+      <c r="B4" s="120" t="s">
+        <v>252</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>132</v>
+        <v>254</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>255</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="40" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
@@ -5644,28 +7266,16 @@
       <c r="O4" s="33"/>
       <c r="P4" s="33"/>
     </row>
-    <row r="5" spans="1:16" ht="181.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>136</v>
-      </c>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
-        <v>177</v>
-      </c>
+      <c r="I5" s="40"/>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
       <c r="L5" s="8"/>
@@ -5674,28 +7284,16 @@
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
     </row>
-    <row r="6" spans="1:16" ht="99" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>152</v>
-      </c>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
-      <c r="I6" s="40" t="s">
-        <v>177</v>
-      </c>
+      <c r="I6" s="40"/>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
       <c r="L6" s="8"/>
@@ -5704,28 +7302,16 @@
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="1:16" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>153</v>
-      </c>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
-      <c r="I7" s="40" t="s">
-        <v>177</v>
-      </c>
+      <c r="I7" s="40"/>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
       <c r="L7" s="8"/>
@@ -5734,28 +7320,16 @@
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="1:16" ht="99" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="69" t="s">
-        <v>151</v>
-      </c>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
-      <c r="I8" s="40" t="s">
-        <v>177</v>
-      </c>
+      <c r="I8" s="40"/>
       <c r="J8" s="40"/>
       <c r="K8" s="40"/>
       <c r="L8" s="8"/>
@@ -5764,28 +7338,16 @@
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="1:16" ht="66" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="69" t="s">
-        <v>150</v>
-      </c>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
-        <v>183</v>
-      </c>
+      <c r="I9" s="40"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="8"/>
@@ -5794,28 +7356,16 @@
       <c r="O9" s="33"/>
       <c r="P9" s="33"/>
     </row>
-    <row r="10" spans="1:16" ht="66" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="69" t="s">
-        <v>156</v>
-      </c>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
-        <v>177</v>
-      </c>
+      <c r="I10" s="40"/>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
       <c r="L10" s="8"/>
@@ -5824,28 +7374,16 @@
       <c r="O10" s="33"/>
       <c r="P10" s="33"/>
     </row>
-    <row r="11" spans="1:16" ht="66" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>160</v>
-      </c>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
-      <c r="I11" s="40" t="s">
-        <v>177</v>
-      </c>
+      <c r="I11" s="40"/>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
       <c r="L11" s="8"/>
@@ -5971,7 +7509,7 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="53"/>
       <c r="K18" s="53"/>
       <c r="L18" s="59"/>
@@ -5989,7 +7527,7 @@
       <c r="F19" s="26"/>
       <c r="G19" s="40"/>
       <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="53"/>
       <c r="K19" s="53"/>
       <c r="L19" s="59"/>
@@ -6007,7 +7545,7 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
+      <c r="I20" s="40"/>
       <c r="J20" s="53"/>
       <c r="K20" s="53"/>
       <c r="L20" s="59"/>
@@ -6025,7 +7563,7 @@
       <c r="F21" s="26"/>
       <c r="G21" s="40"/>
       <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
       <c r="L21" s="59"/>
@@ -6035,24 +7573,23 @@
       <c r="P21" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="79" type="noConversion"/>
+  <phoneticPr fontId="80" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>TestResult</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -6060,7 +7597,580 @@
     <col min="1" max="1" width="9.85546875" style="51" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" style="51" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="51" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" style="51" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" style="51" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="51" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="51" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="51"/>
+    <col min="11" max="11" width="23.28515625" style="51" customWidth="1"/>
+    <col min="12" max="16" width="8.7109375" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="63">
+        <f>COUNTA(A3:A99)</f>
+        <v>11</v>
+      </c>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" s="88" customFormat="1" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" ht="33" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+    </row>
+    <row r="4" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="120" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="120" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="120" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="120" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="120" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="7" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="120" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="120" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+    </row>
+    <row r="8" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="120" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+    </row>
+    <row r="9" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+    </row>
+    <row r="11" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+    </row>
+    <row r="12" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+    </row>
+    <row r="13" spans="1:16" ht="66" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="120" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="80" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+      <formula1>TestResult</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="51" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="51" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" style="51" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" style="51" customWidth="1"/>
     <col min="6" max="6" width="44.28515625" style="51" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" style="51" customWidth="1"/>
@@ -6080,7 +8190,7 @@
       <c r="D1" s="58"/>
       <c r="E1" s="63">
         <f>COUNTA(A3:A99)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
@@ -6094,38 +8204,38 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:16" s="89" customFormat="1" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:16" s="88" customFormat="1" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="87" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="14"/>
@@ -6135,18 +8245,16 @@
       <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="A3" s="10"/>
       <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="20"/>
       <c r="G3" s="26"/>
       <c r="H3" s="40"/>
       <c r="I3" s="40" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
@@ -6157,9 +8265,7 @@
       <c r="P3" s="33"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>104</v>
-      </c>
+      <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -6167,9 +8273,7 @@
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
-      <c r="I4" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I4" s="40"/>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
       <c r="L4" s="8"/>
@@ -6179,9 +8283,7 @@
       <c r="P4" s="33"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="40"/>
@@ -6189,9 +8291,7 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I5" s="40"/>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
       <c r="L5" s="8"/>
@@ -6201,9 +8301,7 @@
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="40"/>
@@ -6211,9 +8309,7 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
-      <c r="I6" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I6" s="40"/>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
       <c r="L6" s="8"/>
@@ -6223,9 +8319,7 @@
       <c r="P6" s="33"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="A7" s="10"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -6233,9 +8327,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
-      <c r="I7" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I7" s="40"/>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
       <c r="L7" s="8"/>
@@ -6245,9 +8337,7 @@
       <c r="P7" s="33"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>108</v>
-      </c>
+      <c r="A8" s="10"/>
       <c r="B8" s="64"/>
       <c r="C8" s="65"/>
       <c r="D8" s="66"/>
@@ -6255,9 +8345,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
-      <c r="I8" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I8" s="40"/>
       <c r="J8" s="40"/>
       <c r="K8" s="40"/>
       <c r="L8" s="8"/>
@@ -6267,9 +8355,7 @@
       <c r="P8" s="33"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="A9" s="10"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -6277,9 +8363,7 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I9" s="40"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="8"/>
@@ -6289,9 +8373,7 @@
       <c r="P9" s="33"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>110</v>
-      </c>
+      <c r="A10" s="10"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -6299,9 +8381,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I10" s="40"/>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
       <c r="L10" s="8"/>
@@ -6311,9 +8391,7 @@
       <c r="P10" s="33"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="A11" s="10"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
@@ -6321,9 +8399,7 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
-      <c r="I11" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I11" s="40"/>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
       <c r="L11" s="8"/>
@@ -6333,9 +8409,7 @@
       <c r="P11" s="33"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="A12" s="10"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
@@ -6343,9 +8417,7 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
       <c r="L12" s="8"/>
@@ -6355,9 +8427,7 @@
       <c r="P12" s="33"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>113</v>
-      </c>
+      <c r="A13" s="10"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
@@ -6365,9 +8435,7 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
       <c r="L13" s="59"/>
@@ -6377,9 +8445,7 @@
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="A14" s="10"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
@@ -6387,9 +8453,7 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
-      <c r="I14" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="59"/>
@@ -6399,9 +8463,7 @@
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="A15" s="10"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -6409,9 +8471,7 @@
       <c r="F15" s="26"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I15" s="40"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
       <c r="L15" s="59"/>
@@ -6421,9 +8481,7 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="A16" s="10"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -6431,9 +8489,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I16" s="40"/>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
       <c r="L16" s="59"/>
@@ -6443,9 +8499,7 @@
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="A17" s="10"/>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
@@ -6453,9 +8507,7 @@
       <c r="F17" s="26"/>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I17" s="40"/>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
       <c r="L17" s="59"/>
@@ -6465,9 +8517,7 @@
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>118</v>
-      </c>
+      <c r="A18" s="10"/>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -6475,9 +8525,7 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="53"/>
-      <c r="I18" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I18" s="40"/>
       <c r="J18" s="53"/>
       <c r="K18" s="53"/>
       <c r="L18" s="59"/>
@@ -6487,9 +8535,7 @@
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="A19" s="10"/>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -6497,9 +8543,7 @@
       <c r="F19" s="26"/>
       <c r="G19" s="40"/>
       <c r="H19" s="53"/>
-      <c r="I19" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I19" s="40"/>
       <c r="J19" s="53"/>
       <c r="K19" s="53"/>
       <c r="L19" s="59"/>
@@ -6509,9 +8553,7 @@
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="A20" s="10"/>
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -6519,9 +8561,7 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I20" s="40"/>
       <c r="J20" s="53"/>
       <c r="K20" s="53"/>
       <c r="L20" s="59"/>
@@ -6531,9 +8571,7 @@
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>121</v>
-      </c>
+      <c r="A21" s="10"/>
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
@@ -6541,9 +8579,7 @@
       <c r="F21" s="26"/>
       <c r="G21" s="40"/>
       <c r="H21" s="53"/>
-      <c r="I21" s="40" t="s">
-        <v>181</v>
-      </c>
+      <c r="I21" s="40"/>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
       <c r="L21" s="59"/>
@@ -6553,1041 +8589,7 @@
       <c r="P21" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="79" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
-      <formula1>TestResult</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" style="51" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="51" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="51" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="51" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="51" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" style="51" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="51" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="51" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="51"/>
-    <col min="11" max="11" width="23.28515625" style="51" customWidth="1"/>
-    <col min="12" max="16" width="8.7109375" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="63">
-        <f>COUNTA(A3:A99)</f>
-        <v>19</v>
-      </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" s="89" customFormat="1" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="79" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
-      <formula1>TestResult</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" style="51" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="51" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="51" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="51" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="51" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" style="51" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="51" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="51" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="51"/>
-    <col min="11" max="11" width="23.28515625" style="51" customWidth="1"/>
-    <col min="12" max="16" width="8.7109375" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="63">
-        <f>COUNTA(A3:A99)</f>
-        <v>19</v>
-      </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" s="89" customFormat="1" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="79" type="noConversion"/>
+  <phoneticPr fontId="80" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>TestResult</formula1>
@@ -7602,13 +8604,13 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="77" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="76" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="51" customWidth="1"/>
     <col min="3" max="6" width="8.5703125" style="51" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" customWidth="1"/>
@@ -7617,80 +8619,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>176</v>
+      <c r="A1" s="82" t="s">
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
-      <c r="G1" s="83" t="s">
-        <v>191</v>
+      <c r="G1" s="82" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="85">
+      <c r="A2" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="84">
         <v>5</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
-      <c r="G2" s="84" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="85">
-        <v>20</v>
+      <c r="G2" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="84">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="85">
+      <c r="A3" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="84">
         <v>7</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
-      <c r="G3" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="85">
+      <c r="G3" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="85">
-        <v>9</v>
+      <c r="A4" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="84">
+        <v>23</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
-      <c r="G4" s="84" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4" s="85">
-        <v>57</v>
+      <c r="G4" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="84">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="85">
-        <v>19</v>
+      <c r="A5" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="84">
+        <v>2</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="33"/>
@@ -7698,39 +8700,35 @@
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="85">
-        <v>19</v>
+      <c r="A6" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="84">
+        <v>11</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
     </row>
-    <row r="7" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="85">
-        <v>19</v>
-      </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+    <row r="7" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="84">
+        <v>48</v>
+      </c>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="85">
-        <v>78</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9"/>
@@ -7813,7 +8811,7 @@
       <c r="C26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="79" type="noConversion"/>
+  <phoneticPr fontId="80" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId3"/>
   <drawing r:id="rId4"/>
@@ -7825,7 +8823,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7840,189 +8838,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="96" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="96" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="91"/>
-      <c r="H1" s="90" t="s">
-        <v>178</v>
+      <c r="A1" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="90"/>
+      <c r="H1" s="89" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
-        <v>161</v>
+      <c r="A2" s="75" t="s">
+        <v>115</v>
       </c>
       <c r="B2" s="11">
         <f>'01LoginLogout'!E1</f>
         <v>5</v>
       </c>
-      <c r="C2" s="97">
+      <c r="C2" s="96">
         <f>COUNTIF('01LoginLogout'!$I$3:$I$100,"Pass")</f>
         <v>5</v>
       </c>
-      <c r="D2" s="97">
+      <c r="D2" s="96">
         <f>COUNTIF('01LoginLogout'!$I$3:$I$100,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="E2" s="97">
+      <c r="E2" s="96">
         <f>COUNTIF('01LoginLogout'!$I$3:$I$100,"Not Tested")</f>
         <v>0</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="H2" s="90" t="s">
-        <v>179</v>
+      <c r="F2" s="91"/>
+      <c r="H2" s="89" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
-        <v>163</v>
+      <c r="A3" s="75" t="s">
+        <v>117</v>
       </c>
       <c r="B3" s="11">
         <f>'02Registration'!E1</f>
         <v>7</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="96">
         <f>COUNTIF('02Registration'!$I$3:$I$100,"Pass")</f>
         <v>7</v>
       </c>
-      <c r="D3" s="97">
+      <c r="D3" s="96">
         <f>COUNTIF('02Registration'!$I$3:$I$100,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="97">
+      <c r="E3" s="96">
         <f>COUNTIF('02Registration'!$I$3:$I$100,"Not Tested")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="H3" s="90" t="s">
-        <v>180</v>
+      <c r="F3" s="91"/>
+      <c r="H3" s="89" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
-        <v>164</v>
+      <c r="A4" s="75" t="s">
+        <v>118</v>
       </c>
       <c r="B4" s="11">
         <f>'03SurveyCreator'!E1</f>
-        <v>9</v>
-      </c>
-      <c r="C4" s="97">
-        <f>COUNTIF('03SurveyCreator'!$I$3:$I$100,"Pass")</f>
-        <v>8</v>
-      </c>
-      <c r="D4" s="97">
-        <f>COUNTIF('03SurveyCreator'!$I$3:$I$100,"Fail")</f>
+        <v>24</v>
+      </c>
+      <c r="C4" s="96">
+        <f>COUNTIF('03SurveyCreator'!$I$3:$I$90,"Pass")</f>
+        <v>23</v>
+      </c>
+      <c r="D4" s="96">
+        <f>COUNTIF('03SurveyCreator'!$I$3:$I$90,"Fail")</f>
         <v>1</v>
       </c>
-      <c r="E4" s="97">
-        <f>COUNTIF('03SurveyCreator'!$I$3:$I$100,"Not Tested")</f>
+      <c r="E4" s="96">
+        <f>COUNTIF('03SurveyCreator'!$I$3:$I$90,"Not Tested")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="92"/>
+      <c r="F4" s="91"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" t="s">
-        <v>165</v>
+      <c r="A5" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="B5" s="40">
         <f>'04SurveyTaker'!E1</f>
-        <v>19</v>
-      </c>
-      <c r="C5" s="97">
+        <v>2</v>
+      </c>
+      <c r="C5" s="96">
         <f>COUNTIF('04SurveyTaker'!$I$3:$I$100,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="D5" s="97">
+      <c r="D5" s="96">
         <f>COUNTIF('04SurveyTaker'!$I$3:$I$100,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="97">
+      <c r="E5" s="96">
         <f>COUNTIF('04SurveyTaker'!$I$3:$I$100,"Not Tested")</f>
-        <v>19</v>
-      </c>
-      <c r="F5" s="93"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="92"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="76" t="s">
-        <v>166</v>
+      <c r="A6" s="75" t="s">
+        <v>120</v>
       </c>
       <c r="B6" s="64">
         <f>'05Report'!E1</f>
-        <v>19</v>
-      </c>
-      <c r="C6" s="97">
+        <v>11</v>
+      </c>
+      <c r="C6" s="96">
         <f>COUNTIF('05Report'!$I$3:$I$100,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="97">
+      <c r="D6" s="96">
         <f>COUNTIF('05Report'!$I$3:$I$100,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="97">
+      <c r="E6" s="96">
         <f>COUNTIF('05Report'!$I$3:$I$100,"Not Tested")</f>
-        <v>19</v>
-      </c>
-      <c r="F6" s="94"/>
+        <v>11</v>
+      </c>
+      <c r="F6" s="93"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="76" t="s">
-        <v>167</v>
+      <c r="A7" s="75" t="s">
+        <v>121</v>
       </c>
       <c r="B7" s="67">
         <f>'06Settings'!E1</f>
-        <v>19</v>
-      </c>
-      <c r="C7" s="97">
+        <v>0</v>
+      </c>
+      <c r="C7" s="96">
         <f>COUNTIF('06Settings'!$I$3:$I$100,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="97">
+      <c r="D7" s="96">
         <f>COUNTIF('06Settings'!$I$3:$I$100,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="97">
+      <c r="E7" s="96">
         <f>COUNTIF('06Settings'!$I$3:$I$100,"Not Tested")</f>
-        <v>19</v>
-      </c>
-      <c r="F7" s="93"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="92"/>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="79">
+      <c r="A8" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="78">
         <f>SUM(B2:B7)</f>
-        <v>78</v>
-      </c>
-      <c r="C8" s="79">
+        <v>49</v>
+      </c>
+      <c r="C8" s="78">
         <f t="shared" ref="C8:E8" si="0">SUM(C2:C7)</f>
-        <v>20</v>
-      </c>
-      <c r="D8" s="79">
+        <v>35</v>
+      </c>
+      <c r="D8" s="78">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="78">
         <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="F8" s="95"/>
+        <v>14</v>
+      </c>
+      <c r="F8" s="94"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="79" type="noConversion"/>
+  <phoneticPr fontId="80" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D2:D7" formula="1"/>
   </ignoredErrors>
